--- a/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="90">
   <si>
     <t>S.No.</t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>Submit</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.addAttributeValidation</t>
+  </si>
+  <si>
+    <t>Assigned successfully.</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Attribute Test8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on edit icon </t>
+  </si>
+  <si>
+    <t>SelectOneOfMultipleElements</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,7 +818,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +829,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,6 +840,28 @@
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -829,20 +872,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1808,24 +1851,26 @@
       <c r="B35" s="14">
         <v>34</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -1834,24 +1879,26 @@
       <c r="B36" s="14">
         <v>35</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="G36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -1860,61 +1907,222 @@
       <c r="B37" s="14">
         <v>36</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="17" t="s">
+      <c r="D37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="G37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="17" t="s">
+      <c r="A38" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="14">
+        <v>37</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="14">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="14">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="14">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="14">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="G42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="14">
+        <v>42</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="14">
+        <v>43</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="95">
   <si>
     <t>S.No.</t>
   </si>
@@ -282,10 +282,25 @@
     <t xml:space="preserve">Click on edit icon </t>
   </si>
   <si>
-    <t>SelectOneOfMultipleElements</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.systemDefinedCodeEdit</t>
+  </si>
+  <si>
+    <t>ClearTextBox</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.displayOrder</t>
+  </si>
+  <si>
+    <t>Enter value in display order field</t>
+  </si>
+  <si>
+    <t>Clear data in display order field</t>
+  </si>
+  <si>
+    <t>Click on aave</t>
   </si>
 </sst>
 </file>
@@ -756,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -796,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +822,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +833,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +855,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,7 +866,7 @@
         <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,10 +2122,10 @@
         <v>87</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>17</v>
@@ -2123,6 +2138,73 @@
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="14">
+        <v>44</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="14">
+        <v>45</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="14">
+        <v>46</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/AttributeFamilies/AttributeFamilies(Add New) TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="103">
   <si>
     <t>S.No.</t>
   </si>
@@ -300,7 +300,31 @@
     <t>Clear data in display order field</t>
   </si>
   <si>
-    <t>Click on aave</t>
+    <t>Znode9X.attributeFamiliesAddNew.displayOrderSaveValidation</t>
+  </si>
+  <si>
+    <t>Record updated successfully.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.displayOrderSave</t>
+  </si>
+  <si>
+    <t>Attribute Test9</t>
+  </si>
+  <si>
+    <t>Click on close icon of the popup</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.editDisplayOrderClose</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeFamiliesAddNew.closeEditDisplayOrder</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -435,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,7 +490,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -769,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +903,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -887,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +932,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="51.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="74.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -2136,8 +2170,8 @@
       <c r="H44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -2147,13 +2181,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>17</v>
@@ -2164,8 +2198,8 @@
       <c r="H45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
@@ -2175,13 +2209,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>17</v>
@@ -2192,18 +2226,151 @@
       <c r="H46" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B47" s="14">
         <v>46</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="14">
+        <v>47</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="14">
+        <v>48</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="14">
+        <v>49</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="14">
+        <v>50</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>94</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2211,6 +2378,7 @@
     <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
